--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -531,25 +531,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H2">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I2">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J2">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.11961066666667</v>
+        <v>47.50824466666666</v>
       </c>
       <c r="N2">
-        <v>159.358832</v>
+        <v>142.524734</v>
       </c>
       <c r="O2">
-        <v>0.06433641347643956</v>
+        <v>0.04546113442798697</v>
       </c>
       <c r="P2">
-        <v>0.06591776041258574</v>
+        <v>0.04619248897260801</v>
       </c>
       <c r="Q2">
-        <v>43.00797405860267</v>
+        <v>2.365847240073777</v>
       </c>
       <c r="R2">
-        <v>387.071766527424</v>
+        <v>21.292625160664</v>
       </c>
       <c r="S2">
-        <v>0.02171301777094681</v>
+        <v>0.002182438541278516</v>
       </c>
       <c r="T2">
-        <v>0.02655130476278538</v>
+        <v>0.002217548451438117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H3">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I3">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J3">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>331.731819</v>
       </c>
       <c r="O3">
-        <v>0.1339269069848316</v>
+        <v>0.105812544913079</v>
       </c>
       <c r="P3">
-        <v>0.137218742705602</v>
+        <v>0.1075148008416609</v>
       </c>
       <c r="Q3">
-        <v>89.52822562081199</v>
+        <v>5.506600759035999</v>
       </c>
       <c r="R3">
-        <v>805.754030587308</v>
+        <v>49.559406831324</v>
       </c>
       <c r="S3">
-        <v>0.04519924494135042</v>
+        <v>0.005079709934094869</v>
       </c>
       <c r="T3">
-        <v>0.05527094115362337</v>
+        <v>0.005161429605027011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H4">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I4">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J4">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>300.8465373333333</v>
+        <v>351.3736063333333</v>
       </c>
       <c r="N4">
-        <v>902.539612</v>
+        <v>1054.120819</v>
       </c>
       <c r="O4">
-        <v>0.3643736649406249</v>
+        <v>0.3362330657350935</v>
       </c>
       <c r="P4">
-        <v>0.3733297311484065</v>
+        <v>0.3416422044152282</v>
       </c>
       <c r="Q4">
-        <v>243.5785938727093</v>
+        <v>17.49793709725822</v>
       </c>
       <c r="R4">
-        <v>2192.207344854384</v>
+        <v>157.481433875324</v>
       </c>
       <c r="S4">
-        <v>0.1229731567958495</v>
+        <v>0.01614143621239577</v>
       </c>
       <c r="T4">
-        <v>0.1503751251056989</v>
+        <v>0.01640111105067651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H5">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I5">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J5">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.4215545</v>
+        <v>49.6371195</v>
       </c>
       <c r="N5">
-        <v>118.843109</v>
+        <v>99.27423899999999</v>
       </c>
       <c r="O5">
-        <v>0.07196908357846375</v>
+        <v>0.04749827694204053</v>
       </c>
       <c r="P5">
-        <v>0.04915869103350864</v>
+        <v>0.03217493596775667</v>
       </c>
       <c r="Q5">
-        <v>48.110305071598</v>
+        <v>2.471862368274</v>
       </c>
       <c r="R5">
-        <v>288.661830429588</v>
+        <v>14.831174209644</v>
       </c>
       <c r="S5">
-        <v>0.02428898202835318</v>
+        <v>0.002280235008363827</v>
       </c>
       <c r="T5">
-        <v>0.01980084546563394</v>
+        <v>0.001544612144037733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H6">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I6">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J6">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>301.688924</v>
+        <v>485.9336543333334</v>
       </c>
       <c r="N6">
-        <v>905.066772</v>
+        <v>1457.800963</v>
       </c>
       <c r="O6">
-        <v>0.3653939310196403</v>
+        <v>0.4649949779817998</v>
       </c>
       <c r="P6">
-        <v>0.3743750746998971</v>
+        <v>0.4724755698027463</v>
       </c>
       <c r="Q6">
-        <v>244.260627183056</v>
+        <v>24.19884807426089</v>
       </c>
       <c r="R6">
-        <v>2198.345644647504</v>
+        <v>217.789632668348</v>
       </c>
       <c r="S6">
-        <v>0.123317488323016</v>
+        <v>0.0223228692864225</v>
       </c>
       <c r="T6">
-        <v>0.1507961836344432</v>
+        <v>0.02268198773137613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H7">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I7">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J7">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.11961066666667</v>
+        <v>47.50824466666666</v>
       </c>
       <c r="N7">
-        <v>159.358832</v>
+        <v>142.524734</v>
       </c>
       <c r="O7">
-        <v>0.06433641347643956</v>
+        <v>0.04546113442798697</v>
       </c>
       <c r="P7">
-        <v>0.06591776041258574</v>
+        <v>0.04619248897260801</v>
       </c>
       <c r="Q7">
-        <v>13.638566277888</v>
+        <v>38.46476524489866</v>
       </c>
       <c r="R7">
-        <v>122.747096500992</v>
+        <v>346.182887204088</v>
       </c>
       <c r="S7">
-        <v>0.006885570372566382</v>
+        <v>0.03548284298739397</v>
       </c>
       <c r="T7">
-        <v>0.008419874167479375</v>
+        <v>0.03605367208793066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H8">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I8">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J8">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>331.731819</v>
       </c>
       <c r="O8">
-        <v>0.1339269069848316</v>
+        <v>0.105812544913079</v>
       </c>
       <c r="P8">
-        <v>0.137218742705602</v>
+        <v>0.1075148008416609</v>
       </c>
       <c r="Q8">
-        <v>28.39093599729599</v>
+        <v>89.52822562081199</v>
       </c>
       <c r="R8">
-        <v>255.5184239756639</v>
+        <v>805.754030587308</v>
       </c>
       <c r="S8">
-        <v>0.01433345586107178</v>
+        <v>0.08258768648183967</v>
       </c>
       <c r="T8">
-        <v>0.017527363487008</v>
+        <v>0.08391631324397889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H9">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I9">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J9">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>300.8465373333333</v>
+        <v>351.3736063333333</v>
       </c>
       <c r="N9">
-        <v>902.539612</v>
+        <v>1054.120819</v>
       </c>
       <c r="O9">
-        <v>0.3643736649406249</v>
+        <v>0.3362330657350935</v>
       </c>
       <c r="P9">
-        <v>0.3733297311484065</v>
+        <v>0.3416422044152282</v>
       </c>
       <c r="Q9">
-        <v>77.242950153408</v>
+        <v>284.4875321261454</v>
       </c>
       <c r="R9">
-        <v>695.186551380672</v>
+        <v>2560.387789135308</v>
       </c>
       <c r="S9">
-        <v>0.03899689734457114</v>
+        <v>0.2624330701106247</v>
       </c>
       <c r="T9">
-        <v>0.04768653151402149</v>
+        <v>0.2666549537239404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H10">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I10">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J10">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.4215545</v>
+        <v>49.6371195</v>
       </c>
       <c r="N10">
-        <v>118.843109</v>
+        <v>99.27423899999999</v>
       </c>
       <c r="O10">
-        <v>0.07196908357846375</v>
+        <v>0.04749827694204053</v>
       </c>
       <c r="P10">
-        <v>0.04915869103350864</v>
+        <v>0.03217493596775667</v>
       </c>
       <c r="Q10">
-        <v>15.256602960984</v>
+        <v>40.188395980458</v>
       </c>
       <c r="R10">
-        <v>91.539617765904</v>
+        <v>241.130375882748</v>
       </c>
       <c r="S10">
-        <v>0.007702452823393659</v>
+        <v>0.03707285187913443</v>
       </c>
       <c r="T10">
-        <v>0.006279187735588043</v>
+        <v>0.02511284013120738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H11">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I11">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J11">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>301.688924</v>
+        <v>485.9336543333334</v>
       </c>
       <c r="N11">
-        <v>905.066772</v>
+        <v>1457.800963</v>
       </c>
       <c r="O11">
-        <v>0.3653939310196403</v>
+        <v>0.4649949779817998</v>
       </c>
       <c r="P11">
-        <v>0.3743750746998971</v>
+        <v>0.4724755698027463</v>
       </c>
       <c r="Q11">
-        <v>77.45923461484799</v>
+        <v>393.4332676290574</v>
       </c>
       <c r="R11">
-        <v>697.1331115336319</v>
+        <v>3540.899408661517</v>
       </c>
       <c r="S11">
-        <v>0.03910609077805924</v>
+        <v>0.3629329536373718</v>
       </c>
       <c r="T11">
-        <v>0.04782005639578699</v>
+        <v>0.3687716259093075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H12">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I12">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J12">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.11961066666667</v>
+        <v>47.50824466666666</v>
       </c>
       <c r="N12">
-        <v>159.358832</v>
+        <v>142.524734</v>
       </c>
       <c r="O12">
-        <v>0.06433641347643956</v>
+        <v>0.04546113442798697</v>
       </c>
       <c r="P12">
-        <v>0.06591776041258574</v>
+        <v>0.04619248897260801</v>
       </c>
       <c r="Q12">
-        <v>61.98025388372534</v>
+        <v>1.726877185388666</v>
       </c>
       <c r="R12">
-        <v>371.8815233023521</v>
+        <v>15.541894668498</v>
       </c>
       <c r="S12">
-        <v>0.03129136825164947</v>
+        <v>0.001593003665498396</v>
       </c>
       <c r="T12">
-        <v>0.02550932543965346</v>
+        <v>0.001618631060965303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H13">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I13">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J13">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>331.731819</v>
       </c>
       <c r="O13">
-        <v>0.1339269069848316</v>
+        <v>0.105812544913079</v>
       </c>
       <c r="P13">
-        <v>0.137218742705602</v>
+        <v>0.1075148008416609</v>
       </c>
       <c r="Q13">
-        <v>129.0221703114015</v>
+        <v>4.019373296276999</v>
       </c>
       <c r="R13">
-        <v>774.1330218684091</v>
+        <v>36.174359666493</v>
       </c>
       <c r="S13">
-        <v>0.06513816886608788</v>
+        <v>0.003707777512003288</v>
       </c>
       <c r="T13">
-        <v>0.05310188850756144</v>
+        <v>0.003767426264018986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H14">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I14">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J14">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>300.8465373333333</v>
+        <v>351.3736063333333</v>
       </c>
       <c r="N14">
-        <v>902.539612</v>
+        <v>1054.120819</v>
       </c>
       <c r="O14">
-        <v>0.3643736649406249</v>
+        <v>0.3362330657350935</v>
       </c>
       <c r="P14">
-        <v>0.3733297311484065</v>
+        <v>0.3416422044152282</v>
       </c>
       <c r="Q14">
-        <v>351.0293944164887</v>
+        <v>12.77207921661033</v>
       </c>
       <c r="R14">
-        <v>2106.176366498933</v>
+        <v>114.948712949493</v>
       </c>
       <c r="S14">
-        <v>0.1772207979084136</v>
+        <v>0.01178194325586443</v>
       </c>
       <c r="T14">
-        <v>0.14447380415468</v>
+        <v>0.01197148489078102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H15">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I15">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J15">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.4215545</v>
+        <v>49.6371195</v>
       </c>
       <c r="N15">
-        <v>118.843109</v>
+        <v>99.27423899999999</v>
       </c>
       <c r="O15">
-        <v>0.07196908357846375</v>
+        <v>0.04749827694204053</v>
       </c>
       <c r="P15">
-        <v>0.04915869103350864</v>
+        <v>0.03217493596775667</v>
       </c>
       <c r="Q15">
-        <v>69.33339660914976</v>
+        <v>1.8042596567055</v>
       </c>
       <c r="R15">
-        <v>277.333586436599</v>
+        <v>10.825557940233</v>
       </c>
       <c r="S15">
-        <v>0.03500367793756719</v>
+        <v>0.001664387178753449</v>
       </c>
       <c r="T15">
-        <v>0.01902378114657121</v>
+        <v>0.001127441969469615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H16">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I16">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J16">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>301.688924</v>
+        <v>485.9336543333334</v>
       </c>
       <c r="N16">
-        <v>905.066772</v>
+        <v>1457.800963</v>
       </c>
       <c r="O16">
-        <v>0.3653939310196403</v>
+        <v>0.4649949779817998</v>
       </c>
       <c r="P16">
-        <v>0.3743750746998971</v>
+        <v>0.4724755698027463</v>
       </c>
       <c r="Q16">
-        <v>352.012295812282</v>
+        <v>17.66320240136233</v>
       </c>
       <c r="R16">
-        <v>2112.073774873692</v>
+        <v>158.968821612261</v>
       </c>
       <c r="S16">
-        <v>0.1777170257810604</v>
+        <v>0.01629388957586893</v>
       </c>
       <c r="T16">
-        <v>0.1448783386638064</v>
+        <v>0.01655601700275357</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H17">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I17">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J17">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.11961066666667</v>
+        <v>47.50824466666666</v>
       </c>
       <c r="N17">
-        <v>159.358832</v>
+        <v>142.524734</v>
       </c>
       <c r="O17">
-        <v>0.06433641347643956</v>
+        <v>0.04546113442798697</v>
       </c>
       <c r="P17">
-        <v>0.06591776041258574</v>
+        <v>0.04619248897260801</v>
       </c>
       <c r="Q17">
-        <v>8.807302274680888</v>
+        <v>6.724126917141333</v>
       </c>
       <c r="R17">
-        <v>79.26572047212801</v>
+        <v>60.517142254272</v>
       </c>
       <c r="S17">
-        <v>0.004446457081276885</v>
+        <v>0.006202849233816087</v>
       </c>
       <c r="T17">
-        <v>0.005437256042667517</v>
+        <v>0.00630263737227393</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1523,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H18">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I18">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J18">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>331.731819</v>
       </c>
       <c r="O18">
-        <v>0.1339269069848316</v>
+        <v>0.105812544913079</v>
       </c>
       <c r="P18">
-        <v>0.137218742705602</v>
+        <v>0.1075148008416609</v>
       </c>
       <c r="Q18">
-        <v>18.333859299764</v>
+        <v>15.650664911328</v>
       </c>
       <c r="R18">
-        <v>165.004733697876</v>
+        <v>140.855984201952</v>
       </c>
       <c r="S18">
-        <v>0.009256037316321521</v>
+        <v>0.0144373709851412</v>
       </c>
       <c r="T18">
-        <v>0.01131854955740913</v>
+        <v>0.01466963172863603</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H19">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I19">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J19">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>300.8465373333333</v>
+        <v>351.3736063333333</v>
       </c>
       <c r="N19">
-        <v>902.539612</v>
+        <v>1054.120819</v>
       </c>
       <c r="O19">
-        <v>0.3643736649406249</v>
+        <v>0.3362330657350935</v>
       </c>
       <c r="P19">
-        <v>0.3733297311484065</v>
+        <v>0.3416422044152282</v>
       </c>
       <c r="Q19">
-        <v>49.88075701858311</v>
+        <v>49.73201474599466</v>
       </c>
       <c r="R19">
-        <v>448.926813167248</v>
+        <v>447.5881327139519</v>
       </c>
       <c r="S19">
-        <v>0.0251828128917906</v>
+        <v>0.04587661615620862</v>
       </c>
       <c r="T19">
-        <v>0.03079427037400597</v>
+        <v>0.04661465474983031</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H20">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I20">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J20">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.4215545</v>
+        <v>49.6371195</v>
       </c>
       <c r="N20">
-        <v>118.843109</v>
+        <v>99.27423899999999</v>
       </c>
       <c r="O20">
-        <v>0.07196908357846375</v>
+        <v>0.04749827694204053</v>
       </c>
       <c r="P20">
-        <v>0.04915869103350864</v>
+        <v>0.03217493596775667</v>
       </c>
       <c r="Q20">
-        <v>9.852172964839333</v>
+        <v>7.025439345551999</v>
       </c>
       <c r="R20">
-        <v>59.113037789036</v>
+        <v>42.152636073312</v>
       </c>
       <c r="S20">
-        <v>0.00497397078914971</v>
+        <v>0.006480802875788828</v>
       </c>
       <c r="T20">
-        <v>0.004054876685715444</v>
+        <v>0.004390041723041939</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H21">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I21">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J21">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>301.688924</v>
+        <v>485.9336543333334</v>
       </c>
       <c r="N21">
-        <v>905.066772</v>
+        <v>1457.800963</v>
       </c>
       <c r="O21">
-        <v>0.3653939310196403</v>
+        <v>0.4649949779817998</v>
       </c>
       <c r="P21">
-        <v>0.3743750746998971</v>
+        <v>0.4724755698027463</v>
       </c>
       <c r="Q21">
-        <v>50.02042585109866</v>
+        <v>68.77710569972267</v>
       </c>
       <c r="R21">
-        <v>450.183832659888</v>
+        <v>618.9939512975041</v>
       </c>
       <c r="S21">
-        <v>0.02525332613750465</v>
+        <v>0.06344526548213664</v>
       </c>
       <c r="T21">
-        <v>0.03088049600586043</v>
+        <v>0.06446593915930919</v>
       </c>
     </row>
   </sheetData>
